--- a/ssp_modeling/scenario_mapping/ssp_libya_transformation_cw_ndc.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_libya_transformation_cw_ndc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_libya/ssp_modeling/scenario_mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/Documents/SSP_Libya_profile/ssp_modeling/scenario_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5621CCD1-B43B-C544-AB89-987C9BBF27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BEAEE-C2C7-264A-BDAE-F02445E49BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7260" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43920" yWindow="-7260" windowWidth="40580" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:K32"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1805,12 +1805,8 @@
       <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
@@ -1844,12 +1840,8 @@
       <c r="I3" s="15">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
@@ -1883,12 +1875,8 @@
       <c r="I4" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -1922,12 +1910,8 @@
       <c r="I5" s="15">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1</v>
-      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
@@ -1961,12 +1945,8 @@
       <c r="I6" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>1</v>
-      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -2002,7 +1982,7 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2037,7 +2017,9 @@
       <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K8" s="15">
         <v>1</v>
       </c>
@@ -2076,7 +2058,7 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2112,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="15">
         <v>0.5</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2151,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -2189,7 +2171,9 @@
       <c r="I12" s="15">
         <v>1</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K12" s="15">
         <v>1</v>
       </c>
@@ -2226,12 +2210,8 @@
       <c r="I13" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
@@ -2266,9 +2246,7 @@
         <v>222</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
+      <c r="K14" s="15"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
@@ -2303,9 +2281,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
+      <c r="K15" s="15"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
@@ -2340,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="15">
         <v>1</v>
@@ -2379,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="15">
         <v>1</v>
@@ -2418,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="15">
         <v>1</v>
@@ -2456,7 +2432,9 @@
       <c r="I19" s="15">
         <v>1</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="15">
         <v>1</v>
       </c>
@@ -2493,7 +2471,9 @@
       <c r="I20" s="15">
         <v>1</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K20" s="15">
         <v>1</v>
       </c>
@@ -2530,7 +2510,9 @@
       <c r="I21" s="15">
         <v>1</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K21" s="15">
         <v>1</v>
       </c>
@@ -2567,12 +2549,8 @@
       <c r="I22" s="28">
         <v>1</v>
       </c>
-      <c r="J22" s="15">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1</v>
-      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
@@ -2606,12 +2584,8 @@
       <c r="I23" s="15">
         <v>1</v>
       </c>
-      <c r="J23" s="15">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
-        <v>1</v>
-      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="10"/>
@@ -2645,12 +2619,8 @@
       <c r="I24" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
-        <v>1</v>
-      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="10"/>
@@ -2684,12 +2654,8 @@
       <c r="I25" s="15">
         <v>1</v>
       </c>
-      <c r="J25" s="15">
-        <v>1</v>
-      </c>
-      <c r="K25" s="15">
-        <v>1</v>
-      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="10"/>
@@ -2723,12 +2689,8 @@
       <c r="I26" s="15">
         <v>1</v>
       </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="15">
-        <v>1</v>
-      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="30"/>
@@ -2762,12 +2724,8 @@
       <c r="I27" s="15">
         <v>1</v>
       </c>
-      <c r="J27" s="15">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15">
-        <v>1</v>
-      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
@@ -2801,12 +2759,8 @@
       <c r="I28" s="15">
         <v>1</v>
       </c>
-      <c r="J28" s="15">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15">
-        <v>1</v>
-      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
@@ -2840,12 +2794,8 @@
       <c r="I29" s="15">
         <v>1</v>
       </c>
-      <c r="J29" s="15">
-        <v>1</v>
-      </c>
-      <c r="K29" s="15">
-        <v>1</v>
-      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
@@ -2879,12 +2829,8 @@
       <c r="I30" s="15">
         <v>1</v>
       </c>
-      <c r="J30" s="15">
-        <v>1</v>
-      </c>
-      <c r="K30" s="15">
-        <v>1</v>
-      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
@@ -2918,12 +2864,8 @@
       <c r="I31" s="15">
         <v>1</v>
       </c>
-      <c r="J31" s="15">
-        <v>1</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1</v>
-      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
@@ -2956,12 +2898,8 @@
       <c r="I32" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J32" s="15">
-        <v>1</v>
-      </c>
-      <c r="K32" s="15">
-        <v>1</v>
-      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="32"/>
       <c r="M32" s="29"/>
       <c r="N32" s="33"/>
@@ -2995,12 +2933,8 @@
       <c r="I33" s="15">
         <v>1</v>
       </c>
-      <c r="J33" s="15">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15">
-        <v>1</v>
-      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -3034,9 +2968,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="15"/>
-      <c r="K34" s="15">
-        <v>1</v>
-      </c>
+      <c r="K34" s="15"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="10"/>
@@ -3070,12 +3002,8 @@
       <c r="I35" s="15">
         <v>1</v>
       </c>
-      <c r="J35" s="15">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <v>1</v>
-      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="10"/>
@@ -3109,12 +3037,8 @@
       <c r="I36" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J36" s="15">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15">
-        <v>1</v>
-      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="10"/>
@@ -3148,12 +3072,8 @@
       <c r="I37" s="15">
         <v>1</v>
       </c>
-      <c r="J37" s="15">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15">
-        <v>1</v>
-      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="10"/>
@@ -3187,12 +3107,8 @@
       <c r="I38" s="15">
         <v>1</v>
       </c>
-      <c r="J38" s="15">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15">
-        <v>1</v>
-      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="10"/>
@@ -3227,9 +3143,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="15">
-        <v>1</v>
-      </c>
+      <c r="K39" s="15"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="10"/>
@@ -3264,9 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="15"/>
-      <c r="K40" s="15">
-        <v>1</v>
-      </c>
+      <c r="K40" s="15"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="10"/>
@@ -3304,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -3343,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -3382,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -3421,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -3460,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3499,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -3538,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3577,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -3616,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -3655,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -3690,7 +3602,9 @@
       <c r="I51" s="15">
         <v>1</v>
       </c>
-      <c r="J51" s="15"/>
+      <c r="J51" s="15">
+        <v>1</v>
+      </c>
       <c r="K51" s="15">
         <v>1</v>
       </c>
@@ -3727,7 +3641,9 @@
       <c r="I52" s="15">
         <v>1</v>
       </c>
-      <c r="J52" s="15"/>
+      <c r="J52" s="15">
+        <v>1</v>
+      </c>
       <c r="K52" s="15">
         <v>1</v>
       </c>
@@ -3803,12 +3719,8 @@
       <c r="I54" s="15">
         <v>1</v>
       </c>
-      <c r="J54" s="15">
-        <v>1</v>
-      </c>
-      <c r="K54" s="15">
-        <v>1</v>
-      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
@@ -3842,12 +3754,8 @@
       <c r="I55" s="15">
         <v>1</v>
       </c>
-      <c r="J55" s="15">
-        <v>1</v>
-      </c>
-      <c r="K55" s="15">
-        <v>1</v>
-      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
@@ -3882,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K56" s="15">
         <v>1</v>
@@ -3920,9 +3828,7 @@
       <c r="I57" s="15">
         <v>1</v>
       </c>
-      <c r="J57" s="15">
-        <v>1</v>
-      </c>
+      <c r="J57" s="15"/>
       <c r="K57" s="15">
         <v>1</v>
       </c>
@@ -3959,9 +3865,7 @@
       <c r="I58" s="15">
         <v>1</v>
       </c>
-      <c r="J58" s="15">
-        <v>1</v>
-      </c>
+      <c r="J58" s="15"/>
       <c r="K58" s="15">
         <v>1</v>
       </c>
@@ -3998,9 +3902,7 @@
       <c r="I59" s="15">
         <v>1</v>
       </c>
-      <c r="J59" s="15">
-        <v>1</v>
-      </c>
+      <c r="J59" s="15"/>
       <c r="K59" s="15">
         <v>1</v>
       </c>
@@ -4037,9 +3939,7 @@
       <c r="I60" s="15">
         <v>1</v>
       </c>
-      <c r="J60" s="15">
-        <v>1</v>
-      </c>
+      <c r="J60" s="15"/>
       <c r="K60" s="15">
         <v>1</v>
       </c>
@@ -4077,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K61" s="15">
         <v>1</v>
@@ -4116,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K62" s="15">
         <v>1</v>
